--- a/medicine/Enfance/Geronimo_Stilton/Geronimo_Stilton.xlsx
+++ b/medicine/Enfance/Geronimo_Stilton/Geronimo_Stilton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Geronimo Stilton est une série italienne de livres et bandes dessinées pour enfants. Le héros de cette série en est l'auteur fictif, le véritable auteur étant Elisabetta Dami.
-La série est publiée en français par les éditions Albin Michel Jeunesse pour les livres et par les éditions Origo et Glénat pour les bandes dessinées[1],[2]. La version originale est produite par Edizioni Piemme de Milan. Cette série est destinée aux enfants de 8 à 12 ans. 
+La série est publiée en français par les éditions Albin Michel Jeunesse pour les livres et par les éditions Origo et Glénat pour les bandes dessinées,. La version originale est produite par Edizioni Piemme de Milan. Cette série est destinée aux enfants de 8 à 12 ans. 
 Le personnage principal, Geronimo Stilton, est une extravagante souris parlante qui vit à Sourisia, capitale de l'île des Souris. Il est également président de l'Écho du rongeur, un journal publié sur cette même île.
-La série a également son adaptation en dessin animé[3].
+La série a également son adaptation en dessin animé.
 </t>
         </is>
       </c>
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille Stilton
-Geronimo Stilton
+          <t>Famille Stilton</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Geronimo Stilton
 C'est le rédacteur en chef de L'Écho du rongeur, sa véritable passion est d'écrire des livres. Il aime lire, jouer au golf, collectionner des fromages du XVIIe siècle. Il apprécie également sa famille et ses amis, mais déteste voyager, car il a le mal des transports, que ce soit lié à la mer, l'air ou la voiture. Malgré tout, il est souvent entraîné par sa sœur dans des aventures rocambolesques autour du monde.
 Téa Stilton
 La jeune sœur de Geronimo. Elle est sportive et dynamique et c'est pour cette raison qu'elle est l'envoyée spéciale de L'Écho du rongeur. C'est une photographe hors pair toujours à la recherche de scoops. Elle possède une moto, pilote un avion, adore les courses de voitures, saute en parachute, est ceinture noire en karaté et donne des cours de survie. Par ailleurs, elle est la chouchoute d’Honoré Tourneboulé alias Panzer.
@@ -555,8 +572,43 @@
 Rejeton Zanzibar 
 C'est un rongeur grand et maigre, car il possède peu de graisse sur les os et son teint est jaunâtre. Comme son père Demilord, il est obsédé de devoir économiser coûte que coûte sur la moindre chose. Son rêve est d'accumuler une grande richesse et de la cacher dans une pièce du château de Castel Radin.
 Astolphe Balépattes 
-Mythique arrière-grand-père de Démilord Zanzibar, il épousa Blanchequeue Stilton, l'arrière-grand-mère de Geronimo. C'était un rongeur si radin que lorsqu'il parlait, il ne répétait pas deux fois ses mots, pour économiser son souffle. Quand il fit construire le château de Castel Radin, pour épargner, Astolphe utilisa les matières les plus disparates qu'il réussit à récupérer sur les routes et dans les décharges.
-Entourage de Geronimo
+Mythique arrière-grand-père de Démilord Zanzibar, il épousa Blanchequeue Stilton, l'arrière-grand-mère de Geronimo. C'était un rongeur si radin que lorsqu'il parlait, il ne répétait pas deux fois ses mots, pour économiser son souffle. Quand il fit construire le château de Castel Radin, pour épargner, Astolphe utilisa les matières les plus disparates qu'il réussit à récupérer sur les routes et dans les décharges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Entourage de Geronimo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patty Spring
 Une amie de Geronimo. Elle aime et défend la nature avec son frère Dakota Springs. Elle a d'ailleurs sa propre émission de télévision sur ce sujet. Elle aime jouer de la flûte, chanter et faire le tour du monde avec son frère. Elle collectionne des colliers et des pendentifs d'ambre provenant du monde entier. Son secret : elle aime Geronimo, mais comme lui n'ose pas lui dire.
 Pandora Woz
@@ -583,7 +635,43 @@
 Beignet. Batifol tient le magasin « Au rat farceur ».
 Centron Lafeinte
 Meilleur joueur de Geronimo.
-Famille Scouit
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille Scouit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Farfouin Scouit
 Un ami de Geronimo qui adore les mystères. Il raffole des bananes et essaye toujours de persuader Geronimo d'en manger. Il fait partie des nombreux admirateurs de Téa Stilton.
 Squittuzza Scouit
@@ -610,9 +698,84 @@
 Squittisciàmp Scouit
 Squittirchia Scouit
 Squitterina Scouit
-Eréscouit Scouit
-C'est le cousin de Farfoin Scouit. Il raffole de pistaches, et il a construit la machine à voyager dans le temps 9 : la bananakronos.
-Famille Spring
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille Scouit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Eréscouit Scouit</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le cousin de Farfoin Scouit. Il raffole de pistaches, et il a construit la machine à voyager dans le temps 9 : la bananakronos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille Spring</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patty Spring
 une amie de Geronimo. Elle aime et défend la nature avec son frère Dakota Springs. Elle a d'ailleurs sa propre émission de télévision sur ce sujet. Elle aime jouer de la flûte, chanter et faire le tour du monde avec son frère. Elle collectionne des colliers et des pendentifs d'ambre provenant du monde entier. Son secret : elle aime Geronimo, mais comme lui, n'ose pas lui dire.
 Grand-père Spring
@@ -631,7 +794,43 @@
 Pandora Woz
 la nièce préférée de Patty Springs. Elle a 9 ans et rêve de sauver la nature. Son secret : quand elle sera grande, elle épousera Benjamin.
 Ciccirillo Woz
-Famille Ténébrax
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille Ténébrax</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ténébreuse Ténébrax
 Une amie de Geronimo. C'est une réalisatrice de films d'horreur la plus reconnue à Sourisia. Elle est toujours habillée de sa robe mauve. C'est la fille de Souterrat Ténébrax. Elle a des yeux verts, un pelage gris, des longs ongles avec du vernis mauve. Elle est fascinante, mais dotée d'un caractère épouvantable. Elle roule au volant d'un corbillard décapotable : la Chauve-souris qui rugit. Son secret : Elle a un faible pour Geronimo. Elle parle souvent d'un mariage. Elle dit même qu'elle est la fiancée de Geronimo.
 Souterrat Ténébrax
@@ -785,8 +984,43 @@
 Vieille acariâtre qui ont toujours quelque chose (de perfide) à redire sur tout et sur tous.
 Croacoa Corbotus
 Corbeau qui n'a aucun rapport avec les ténébrax, mais qui se mêle toujours de ce qui ne le regarde pas.
-Personnages secondaires
-Crick Croquerat
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Crick Croquerat
 Le principal méchant de la saison 2, Geronimo, avec l'aide de ses compagnons, arrive à chaque fois à faire déjouer ses plans machiavéliques. Il rencontre pour la première fois Geronimo dans l'épisode Des souris et des chips.
 Max
 L'animal de compagnie robotisé de Benjamin. Max a fait sa première apparition dans la saison 1. C'est une petite souris informatique qui communique par des signaux sonores et des bourdonnements. Max est plutôt petit et peut s'introduire assez facilement dans de petits espaces. Il peut sortir de sa tête n'importe quels outils comme un couteau suisse par exemple.
@@ -795,64 +1029,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>L'Écho du rongeur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le lieu de travail de Geronimo Stilton. C'est là qu'il fabrique le journal du même nom, le plus lu à Sourisia.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geronimo Stilton
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Geronimo Stilton</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Sourire de Mona Sourisa
 Le Galion des chats pirates
 Un sorbet aux mouches pour Monsieur le Comte
@@ -953,17 +1195,121 @@
 Sabotage au Luna Park
 Les Aventuriers de l'extrême
 Terreur sur les collines chocolat
-Geronimo Stilton et Spaghetto
-L'escape game infernal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Geronimo Stilton et Spaghetto</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'escape game infernal
 Duel au skatepark
-Vacances de choc !
-Les aventures de Sherlock
-Elémentaire, mon cher Stilton !
+Vacances de choc !</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les aventures de Sherlock</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elémentaire, mon cher Stilton !
 Le brouillard noir
 Le masque d'argent
 La griffe du chat-garou
-Des ombres dans la brume
-L'île des dinosaures
+Des ombres dans la brume</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L'île des dinosaures</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les traces du T.Rex
 Tricératops à l'attaque !
 Fuyons le vélociraptor !
@@ -972,9 +1318,79 @@
 Bébés stégosaures en danger !
 Sauvés par un T.Rex !
 A la rescousse des dinosaures
-Mini-Maxi
-Au secours, j'ai rapetissé !
-Préhistos
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mini-Maxi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Au secours, j'ai rapetissé !</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Préhistos</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pas touche à la pierre à feu ! (2013)
 Alerte aux météorites sur Silexcity ! (2013)
 Des stalactites dans les moustaches ! (2013)
@@ -988,8 +1404,43 @@
 Trottosaure contre huile géante (2016)
 Poulposaure à bâbord ! (2016)
 Gare au Gonfiosore puant ! (2016)
-Grands livres
-Collection « Le Royaume de la Fantaisie»
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Grands livres</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collection « Le Royaume de la Fantaisie»
 Le Royaume de la fantaisie
 Le Royaume du bonheur
 Le Royaume de la magie
@@ -1024,7 +1475,43 @@
 Le secret du courage
 Enigme aux jeux Olympiques
 Le secret des dinosaures
-Classiques jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Classiques jeunesse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Robin des Bois
 Le Livre de la jungle
 L'Île au trésor
@@ -1037,15 +1524,86 @@
 Les Trois Mousquetaires
 Les Aventures de Sherlock Holmes
 Les Aventures d'Arsène Lupin
-Romans
-Saga « Les Chroniques des mondes magiques » 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saga « Les Chroniques des mondes magiques » 
 La Quête du royaume perdu (2009)
 La Porte enchantée (2010)
 La Forêt des murmures (2010)
 L'Anneau de lumière (2011)
 L'Île des chevaliers pétrifiés (2012)
 Le Secret des chevaliers (2013)
-Bandes dessinées[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bandes dessinées[4]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Découverte de l'Amérique
 L'Imposteur du Colisée
 Sur les traces de Marco Polo
@@ -1067,36 +1625,73 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Série télévisée d’animation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une série télévisée d’animation éponyme a été réalisée par Guy Vasilovich, coproduite par Atlantyca Entertainment et Moonscoop Productions, en collaboration avec Mike Young Productions (en) et avec la participation de Rai Fiction.
-Celle-ci comporte deux saisons, chacune de 26 épisodes de 24 minutes et a été diffusée sur M6[5] dans l'émission M6 Kid en 2010 et 2013, sur France 5 dans Zouzous depuis le 1er octobre 2011, sur France 3 dans l'émission Ludo en 2012 et sur Boomerang depuis septembre 2019 et OUFtivi sur La Trois (Belgique) en septembre 2012. La chaîne d’origine est Rai 2.
-Synopsis
-Fiche technique
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série télévisée d’animation éponyme a été réalisée par Guy Vasilovich, coproduite par Atlantyca Entertainment et Moonscoop Productions, en collaboration avec Mike Young Productions (en) et avec la participation de Rai Fiction.
+Celle-ci comporte deux saisons, chacune de 26 épisodes de 24 minutes et a été diffusée sur M6 dans l'émission M6 Kid en 2010 et 2013, sur France 5 dans Zouzous depuis le 1er octobre 2011, sur France 3 dans l'émission Ludo en 2012 et sur Boomerang depuis septembre 2019 et OUFtivi sur La Trois (Belgique) en septembre 2012. La chaîne d’origine est Rai 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Série télévisée d’animation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original : Geronimo Stilton
 Réalisation : Guy Vasilovich
 Scénario : Annetta Zucchi, Maud Loisillier, Diane Morel
@@ -1105,14 +1700,50 @@
 Musique : Thomas Dartigues
 Paroles : Lou Lussier
 Chant : Valmont
-Distribution
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geronimo_Stilton</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Série télévisée d’animation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Frédéric Popovic : Geronimo Stilton
 Pascale Chemin : Benjamin Stilton
 Catherine Collomb : Téa Stilton
 Fabrice Lelyon : Traquenard Stilton
 Ève Lorach : Sally
 Bernard Jung : Honoré Tourneboulé
-Épisodes</t>
+</t>
         </is>
       </c>
     </row>
